--- a/biology/Botanique/Norantea_guianensis/Norantea_guianensis.xlsx
+++ b/biology/Botanique/Norantea_guianensis/Norantea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Norantea guianensis est une espèce de plantes à fleurs de la famille des Marcgraviaceae, et qui est l'espèce type du genre Norantea Aubl..
 </t>
@@ -511,13 +523,15 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Guyana, on l'appelle Karakara (Arawak)[3], Konopo yorokorï (Carib)[4].
-Au Suriname, on la nomme Rafroetéré (Sranan tongo), Djabra tere (Aukan), Karakàra, Karrakarra, Caracalla, Karagalla (Arawak), Konopo-jolokolo, Konòpo jolok'li, Nopojorogorli (Karib)[5].
-Au Venezuela on l'appelle Bejuco rabo de guacamayo, Guacamaya, Peine de morocoto, Rabo de guaca, Usibo akuanetete (Espagnol)[6].
-Elle est connue au Brésil sous le nom de Rabo de Arara[7], Trepadeira Rabo de Arara, Flor-de-papagaio, ou Norânteia[8].
-D'autres appellations sont signalées : Queue d'ara, Fleur de Guyane, Vigne rouge (français), Red hot poker vine,  Beacon, Red popcorn vine (anglais), Vid colombiana, Cola de guaca[9], Burriquito (espagnol).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Guyana, on l'appelle Karakara (Arawak), Konopo yorokorï (Carib).
+Au Suriname, on la nomme Rafroetéré (Sranan tongo), Djabra tere (Aukan), Karakàra, Karrakarra, Caracalla, Karagalla (Arawak), Konopo-jolokolo, Konòpo jolok'li, Nopojorogorli (Karib).
+Au Venezuela on l'appelle Bejuco rabo de guacamayo, Guacamaya, Peine de morocoto, Rabo de guaca, Usibo akuanetete (Espagnol).
+Elle est connue au Brésil sous le nom de Rabo de Arara, Trepadeira Rabo de Arara, Flor-de-papagaio, ou Norânteia.
+D'autres appellations sont signalées : Queue d'ara, Fleur de Guyane, Vigne rouge (français), Red hot poker vine,  Beacon, Red popcorn vine (anglais), Vid colombiana, Cola de guaca, Burriquito (espagnol).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Norantea guianensis est une grande liane ligneuse ou un arbuste, hémiépiphyte ou largement étalé au sol. Il produit un exsudat rouge peu abondant.
 Ses feuilles disposées en spirale, portées par un pétiole long de (0,5)1-2 cm, présentent un limbe coriace, plus ou moins brillant dessus et terne dessous , de forme obovale-oblong à oblancéolé ou elliptique, mesurant 8-21 x 3,5-8,5 cm, avec 2 glandes basales, la base aiguë, cunéiforme ou atténuée, l'apex légèrement émarginé, mucroné, obtus, arrondi à aigu. Les marges sont entières, et légèrement révolutes. La fracture est non ciliée lorsque la feuille est brisée perpendiculairement à la nervure médiane.
@@ -561,7 +577,7 @@
 Le style court, épais et cylindrique, mesure 0,5 mm de long.
 Le stigmate est lisse ou légèrement 5-lobé.
 Le fruit est une capsule coriace ressemblant à une baie globuleuse, mesurant 0,5-1,5 cm de diamètre, assez rugueux à l'extérieur, apiculé par le style persistant, devient rougeâtre à maturité.
-Ses petites graines subcylindriques, courbes, mesurent environ 3-4 mm de long, pour 1 mm d'épaisseur, et portent une testa réticulée, noire et brillante[6],[10],[5].
+Ses petites graines subcylindriques, courbes, mesurent environ 3-4 mm de long, pour 1 mm d'épaisseur, et portent une testa réticulée, noire et brillante.
 </t>
         </is>
       </c>
@@ -590,9 +606,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Norantea guianensis est présente du Costa Rica, au nord de l'Amérique du Sud en passant par la Jamaïque, les Petites Antilles, Trinidad et Tobago, la Colombie, le Venezuela, le Pérou, l'Équateur, le Guyana, le Suriname, la Guyane, et le Brésil tropical (Amapá, Amazonas, Rondônia, Roraima, Maranhão, Mato Grosso, Pará)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norantea guianensis est présente du Costa Rica, au nord de l'Amérique du Sud en passant par la Jamaïque, les Petites Antilles, Trinidad et Tobago, la Colombie, le Venezuela, le Pérou, l'Équateur, le Guyana, le Suriname, la Guyane, et le Brésil tropical (Amapá, Amazonas, Rondônia, Roraima, Maranhão, Mato Grosso, Pará).
 </t>
         </is>
       </c>
@@ -621,15 +639,17 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre communément Norantea guianensis du niveau de la mer à 600 m d'altitude, dans la lisière des savanes soumises au feu, les forêts humides de plaine, et les forêts marécageuses sur pégasse ou à palmiers-bâche (Mauritia flexuosa)[6],[4],[11]. En Guyane, il fleurit de décembre à février et fructifie en février-septembre[10].
-Norantea guianensis présenterait des propriétés allélopathiques[12].
-Les fleurs de Norantea guianensis contiendraient des glycosides de flavonol[13].
-Les feuilles de Norantea guianensis présentent des adaptations à la sécheresse (épaississement de la nervure centrale, parois des cellules épidermiques foliaires adaxiales épaissies, à contour droit et avec des trichomes tecteurs)[14].
-Les fleurs de Norantea guianensis produisent un nectar très sucré, presque entièrement composé de fructose et de glucose, particulièrement apprécié par les tamarins à mains dorées (Saguinus midas), mais aussi par les kwata (Ateles paniscus) et les macaques bruns (Cebus apella)[15],[16].
-Norantea guianensis est une plante ornithochore et ornithogame[17]. De nombreux oiseaux se nourrissent de son nectar, comme le Dacnis bleu, le Caliste rouverdin, le Sucrier à ventre jaune. Il s'agit d'une source significative de nectar pour le Guit-guit céruléen, le Guit-guit saï, le Tangara émeraude. Le Tangara à galons blancs récupère le nectar en perçant la base des nectaires[18].
-L'anatomie du bois et des faisceaux conducteurs de Norantea guianensis ont été étudiés[19],[20].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre communément Norantea guianensis du niveau de la mer à 600 m d'altitude, dans la lisière des savanes soumises au feu, les forêts humides de plaine, et les forêts marécageuses sur pégasse ou à palmiers-bâche (Mauritia flexuosa). En Guyane, il fleurit de décembre à février et fructifie en février-septembre.
+Norantea guianensis présenterait des propriétés allélopathiques.
+Les fleurs de Norantea guianensis contiendraient des glycosides de flavonol.
+Les feuilles de Norantea guianensis présentent des adaptations à la sécheresse (épaississement de la nervure centrale, parois des cellules épidermiques foliaires adaxiales épaissies, à contour droit et avec des trichomes tecteurs).
+Les fleurs de Norantea guianensis produisent un nectar très sucré, presque entièrement composé de fructose et de glucose, particulièrement apprécié par les tamarins à mains dorées (Saguinus midas), mais aussi par les kwata (Ateles paniscus) et les macaques bruns (Cebus apella),.
+Norantea guianensis est une plante ornithochore et ornithogame. De nombreux oiseaux se nourrissent de son nectar, comme le Dacnis bleu, le Caliste rouverdin, le Sucrier à ventre jaune. Il s'agit d'une source significative de nectar pour le Guit-guit céruléen, le Guit-guit saï, le Tangara émeraude. Le Tangara à galons blancs récupère le nectar en perçant la base des nectaires.
+L'anatomie du bois et des faisceaux conducteurs de Norantea guianensis ont été étudiés,.
 </t>
         </is>
       </c>
@@ -658,10 +678,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Norantea guianensis est une plante ornementale appréciée dans les jardins tropicaux.
-Les Arawak du Guyana emploient Norantea guianensis comme remèdes pour soigner la diarrhée, la nausée et contre la fièvre[4].
+Les Arawak du Guyana emploient Norantea guianensis comme remèdes pour soigner la diarrhée, la nausée et contre la fièvre.
 </t>
         </is>
       </c>
@@ -690,10 +712,12 @@
           <t>Taxons infra-spécifiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Norantea guianensis subsp. guianensis de la région Caraïbe et nord de l'Amérique du sud, qui a un pétiole plutôt court, des nectaires à lèvre apiculée, un orifice large, saillant, à base souvent bifide, devenant plutôt lisses lorsqu'ils sont secs.
-Norantea guianensis subsp. japurensis de la région du bassin amazonien, qui a un pétiole plutôt long, des nectaires sans lèvre apiculée, un orifice allongé ou ovale, devenant souvent papillaires-rugueux lorsqu'ils sont secs[6].
+Norantea guianensis subsp. japurensis de la région du bassin amazonien, qui a un pétiole plutôt long, des nectaires sans lèvre apiculée, un orifice allongé ou ovale, devenant souvent papillaires-rugueux lorsqu'ils sont secs.
 Norantea guianensis var. goyasensis	(Cambess.) G.L. Ferreira
 Norantea guianensis var. gracilis Wittm.</t>
         </is>
@@ -723,9 +747,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[21] : 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « NORANTEA Guianenſis. (Tabula 220.)
 Arbor altiſſima octoginta pedibus &amp; ampliùs data, ramos rectos proferens. Folia alterna, craſſa, brevi petiolata, ovata, integerrima, leviter emarginata, acumine terminata. Flores ſeſſiles, ſpicati ; ſpica longiſſima, incurva. Bractea calicina carnoſa, utricularis, coccinea. Calicis folia viridia, ad marginem tubentia. Corolla violacea. Fructum maturum non vidi. 
 Florebat Septembri. 
